--- a/AI and Semiconductors/SMCI_MODEL.xlsx
+++ b/AI and Semiconductors/SMCI_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Emerging Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\AI and Semiconductors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD46D5-900E-48C8-B6FD-3202ADDD4074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DE4CC-822D-4871-AC61-AC73AABC1F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -282,9 +282,6 @@
     <t>SG&amp;A</t>
   </si>
   <si>
-    <t>(Based on earnings projections)</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -346,23 +343,48 @@
   </si>
   <si>
     <t>2.44 / 9.79 B</t>
+  </si>
+  <si>
+    <t>Current Ratio</t>
+  </si>
+  <si>
+    <t>10-11 billion</t>
+  </si>
+  <si>
+    <t>0.37-0.45</t>
+  </si>
+  <si>
+    <t>36bill FY26</t>
+  </si>
+  <si>
+    <t>MISSED</t>
+  </si>
+  <si>
+    <t>(Released early, adjusted to 5 billion, stock didn’t drop)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -529,55 +551,59 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -917,7 +943,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>46.62</v>
+        <v>31.6</v>
       </c>
       <c r="C4" s="2">
-        <v>45875</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -961,8 +987,8 @@
       <c r="B5" s="1">
         <v>597</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -971,7 +997,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>27832.14</v>
+        <v>18865.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1">
-        <v>5170</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,13 +1013,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>4760</v>
+        <v>5170</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>4.32</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,13 +1028,21 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>27422.14</v>
+        <v>19825.2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>5.27</v>
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,7 +1050,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="1">
-        <v>1.68</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1058,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="1">
-        <v>5.68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1032,7 +1066,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="1">
-        <v>25.72</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,7 +1074,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="1">
-        <v>1.63</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1082,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="1">
-        <v>26.33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1056,10 +1090,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="1">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>7.72</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1118,7 @@
     <col min="20" max="20" width="15" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1261,6 +1292,9 @@
       <c r="W7" s="4">
         <v>5757</v>
       </c>
+      <c r="X7" s="5">
+        <v>5018</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
@@ -1328,6 +1362,9 @@
       <c r="W8" s="1">
         <v>5212</v>
       </c>
+      <c r="X8" s="1">
+        <v>4550</v>
+      </c>
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1417,7 +1454,7 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="1"/>
@@ -1490,6 +1527,10 @@
       <c r="W10" s="1">
         <v>132</v>
       </c>
+      <c r="X10" s="1">
+        <f xml:space="preserve"> 48 + 64</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
@@ -1557,6 +1598,9 @@
       <c r="W11" s="1">
         <v>183</v>
       </c>
+      <c r="X11" s="1">
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1645,7 +1689,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="Y12" s="4">
         <f t="shared" si="3"/>
@@ -1716,6 +1760,9 @@
       <c r="W13" s="1">
         <v>223</v>
       </c>
+      <c r="X13" s="1">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -1781,6 +1828,9 @@
       <c r="W14" s="1">
         <v>19</v>
       </c>
+      <c r="X14" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -1868,7 +1918,7 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="Y15" s="5">
         <f t="shared" si="6"/>
@@ -1911,6 +1961,9 @@
       <c r="W16" s="1">
         <v>0.33</v>
       </c>
+      <c r="X16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -1938,6 +1991,9 @@
       <c r="W17" s="1">
         <v>0.31</v>
       </c>
+      <c r="X17" s="1">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -2021,7 +2077,7 @@
       </c>
       <c r="X19" s="6">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>-0.15483468916847731</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="8"/>
@@ -2117,11 +2173,11 @@
       </c>
       <c r="X20" s="6">
         <f t="shared" si="10"/>
+        <v>-0.12836546812576</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="10"/>
         <v>-1</v>
-      </c>
-      <c r="Y20" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z20" s="6" t="e">
         <f t="shared" si="10"/>
@@ -2141,188 +2197,188 @@
       <c r="S21" s="7"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="36">
         <f>D9/D7</f>
         <v>0.17042770926266082</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="36">
         <f t="shared" ref="E22:Y22" si="11">E9/E7</f>
         <v>0.16391665663013358</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="36">
         <f t="shared" si="11"/>
         <v>0.13729210849425161</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="36">
         <f t="shared" si="11"/>
         <v>0.13610851262862489</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="36">
         <f t="shared" si="11"/>
         <v>0.13372712307543336</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="36">
         <f t="shared" si="11"/>
         <v>0.13962811327192087</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="36">
         <f t="shared" si="11"/>
         <v>0.15551457026927329</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="36">
         <f t="shared" si="11"/>
         <v>0.17572607765209422</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="36">
         <f t="shared" si="11"/>
         <v>0.18762485826899197</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="36">
         <f t="shared" si="11"/>
         <v>0.18711180124223606</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="36">
         <f t="shared" si="11"/>
         <v>0.17642016675757802</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="36">
         <f t="shared" si="11"/>
         <v>0.17012220238912537</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="36">
         <f t="shared" si="11"/>
         <v>0.16686323536349476</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="36">
         <f t="shared" si="11"/>
         <v>0.15397418756309864</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="36">
         <f t="shared" si="11"/>
         <v>0.15516480091426199</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="36">
         <f t="shared" si="11"/>
         <v>0.10196840100100847</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="36">
         <f t="shared" si="11"/>
         <v>0.1306317686490493</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="36">
         <f t="shared" si="11"/>
         <v>0.11801690736174716</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="36">
         <f t="shared" si="11"/>
         <v>9.5697732559403434E-2</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="36">
         <f t="shared" si="11"/>
         <v>9.4667361472989403E-2</v>
       </c>
-      <c r="X22" s="6" t="e">
+      <c r="X22" s="36">
+        <f t="shared" si="11"/>
+        <v>9.3264248704663211E-2</v>
+      </c>
+      <c r="Y22" s="36" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y22" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="23" spans="2:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="36">
         <f>D12/D7</f>
         <v>6.6517974284964712E-2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="36">
         <f t="shared" ref="E23:Y23" si="12">E12/E7</f>
         <v>6.9974707936890174E-2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="36">
         <f t="shared" si="12"/>
         <v>4.3420024556312095E-2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="36">
         <f t="shared" si="12"/>
         <v>5.790458372310571E-2</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="36">
         <f t="shared" si="12"/>
         <v>4.9191439914786507E-2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="36">
         <f t="shared" si="12"/>
         <v>6.2180143295803514E-2</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="36">
         <f t="shared" si="12"/>
         <v>8.2700110660272927E-2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="36">
         <f t="shared" si="12"/>
         <v>0.11580556404769189</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="36">
         <f t="shared" si="12"/>
         <v>0.13471194859888774</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="36">
         <f t="shared" si="12"/>
         <v>0.13509316770186339</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="36">
         <f t="shared" si="12"/>
         <v>9.701550689628291E-2</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="36">
         <f t="shared" si="12"/>
         <v>0.11840358826490917</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="36">
         <f t="shared" si="12"/>
         <v>9.8976270226918822E-2</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="36">
         <f t="shared" si="12"/>
         <v>0.11413681137275238</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="36">
         <f t="shared" si="12"/>
         <v>0.11119191709306255</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="36">
         <f t="shared" si="12"/>
         <v>6.4318529862174567E-2</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="36">
         <f t="shared" si="12"/>
         <v>9.736749027335663E-2</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="36">
         <f t="shared" si="12"/>
         <v>7.8953856991898622E-2</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="36">
         <f t="shared" si="12"/>
         <v>4.4935759473031987E-2</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="36">
         <f t="shared" si="12"/>
         <v>3.9951363557408373E-2</v>
       </c>
-      <c r="X23" s="6" t="e">
+      <c r="X23" s="36">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="6" t="e">
+        <v>3.6468712634515746E-2</v>
+      </c>
+      <c r="Y23" s="36" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2392,6 +2448,9 @@
       <c r="W25" s="8">
         <v>864</v>
       </c>
+      <c r="X25" s="8">
+        <v>-918</v>
+      </c>
     </row>
     <row r="26" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
@@ -2458,6 +2517,9 @@
       <c r="W26" s="1">
         <v>79</v>
       </c>
+      <c r="X26" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="2:30" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
@@ -2542,6 +2604,10 @@
       <c r="W27" s="8">
         <f>W25-W26</f>
         <v>785</v>
+      </c>
+      <c r="X27" s="8">
+        <f>X25-X26</f>
+        <v>-950</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
@@ -2641,7 +2707,9 @@
       <c r="W32" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="X32" s="12"/>
+      <c r="X32" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -2654,11 +2722,20 @@
       <c r="W33" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="X33" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="AD33" s="16"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="U34" s="17"/>
+      <c r="W34" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="X34" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="AD34" s="16"/>
     </row>
     <row r="35" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2683,7 +2760,9 @@
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
+      <c r="W35" s="38" t="s">
+        <v>95</v>
+      </c>
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
@@ -3308,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6AACC-FEA2-4C5B-AF79-59D39A66A975}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -3329,44 +3408,44 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="25">
         <v>0.1106</v>
@@ -3391,13 +3470,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="D3" s="25">
         <v>0.21729999999999999</v>
@@ -3422,13 +3501,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="25">
         <v>0.29189999999999999</v>
@@ -3453,13 +3532,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="D5" s="25">
         <v>0.63560000000000005</v>
@@ -3514,6 +3593,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -3657,22 +3751,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3688,28 +3791,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>